--- a/doc/План.xlsx
+++ b/doc/План.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Physic Engine</t>
   </si>
@@ -27,9 +30,6 @@
     <t>Game Realize (компоновка частей)</t>
   </si>
   <si>
-    <t>BD MySQL connector C++</t>
-  </si>
-  <si>
     <t>SoundEngine</t>
   </si>
   <si>
@@ -120,7 +120,19 @@
     <t>Прежде нужно сделать MapKeyWin и MapKeyMac</t>
   </si>
   <si>
-    <t>В поцессе, 1%</t>
+    <t>2-3 месяц</t>
+  </si>
+  <si>
+    <t>В поцессе, 3%</t>
+  </si>
+  <si>
+    <t>30.02.2014</t>
+  </si>
+  <si>
+    <t>БД MySQL connector C++</t>
+  </si>
+  <si>
+    <t>Модуль большой, поэтому требуется подробный план реализации.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -173,6 +185,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,52 +484,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="44.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>41294</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1">
@@ -525,64 +540,67 @@
         <v>41299</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>41310</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>41365</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>41320</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>41348</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -590,109 +608,109 @@
         <v>0</v>
       </c>
       <c r="B7" s="4">
-        <v>41363</v>
+        <v>41455</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>41450</v>
+        <v>41542</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>41572</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4">
-        <v>41480</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>41486</v>
+        <v>41578</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>41516</v>
+        <v>41608</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
-        <v>41547</v>
+        <v>41638</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>41608</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
-        <v>41628</v>
+        <v>41718</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.63" right="0.34" top="0.75" bottom="0.31" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -705,6 +723,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -717,5 +736,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>